--- a/src/main/resources/excelTemplate/inspection_result_template_01.xlsx
+++ b/src/main/resources/excelTemplate/inspection_result_template_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,18 +123,6 @@
   </si>
   <si>
     <t>${info.NOTE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.PRODUCT_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.POINT_POSITION}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.POINT_NUM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,6 +141,40 @@
   </si>
   <si>
     <t>날짜기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DATA.PRODUCT_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${data3}" var="DATA"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${data2}" var="POINT"&gt;</t>
+  </si>
+  <si>
+    <t>${POINT.POINT_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${POINT.POINT_POSITION}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${POINT.list}" var="cols"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cols}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +249,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +272,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -552,54 +589,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -607,47 +623,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,25 +698,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,55 +761,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="358140" y="2446020"/>
-          <a:ext cx="9784080" cy="7338060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,212 +1026,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M47"/>
+  <dimension ref="B1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="15" customWidth="1"/>
-    <col min="2" max="8" width="10.69921875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" style="15" customWidth="1"/>
-    <col min="10" max="12" width="10.69921875" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="15"/>
+    <col min="1" max="1" width="4.69921875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="8.69921875" style="5" customWidth="1"/>
+    <col min="4" max="8" width="10.69921875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" style="5" customWidth="1"/>
+    <col min="10" max="12" width="10.69921875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>29</v>
+      <c r="K3" s="20"/>
+      <c r="L3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>31</v>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="2:13" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="42"/>
+      <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="20" t="s">
+      <c r="L8" s="38"/>
+      <c r="M8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="2:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
-        <v>25</v>
+    <row r="45" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="2:6" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="14"/>
+    <row r="47" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B48" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D10:M10"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="B7:C7"/>
@@ -1237,6 +1273,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/excelTemplate/inspection_result_template_01.xlsx
+++ b/src/main/resources/excelTemplate/inspection_result_template_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>${info.SURFACE_TREAT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.INSPECT_DT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,26 +151,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${POINT.POINT_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${POINT.POINT_POSITION}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${POINT.list}" var="cols"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${cols}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;jx:forEach items="${data2}" var="POINT"&gt;</t>
-  </si>
-  <si>
-    <t>${POINT.POINT_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${POINT.POINT_POSITION}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${POINT.list}" var="cols"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${cols}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.INSPECT_DT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.INSERT_DT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.USER_NM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,6 +191,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -598,13 +610,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,25 +741,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,46 +846,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M49"/>
+  <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1044,20 +1156,20 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1072,183 +1184,652 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:13" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="42"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="2:13" ht="7.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="2:6" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="12" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="22"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+    </row>
+    <row r="43" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+    </row>
+    <row r="44" spans="2:14" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+    </row>
+    <row r="45" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+    </row>
+    <row r="46" spans="2:14" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="C46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B48" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" s="5" t="s">
-        <v>30</v>
+    </row>
+    <row r="47" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="K3:K4"/>
@@ -1259,7 +1840,6 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F2:I3"/>
@@ -1267,8 +1847,6 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="D2:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/inspection_result_template_01.xlsx
+++ b/src/main/resources/excelTemplate/inspection_result_template_01.xlsx
@@ -82,18 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${info.COMP_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${info.CONTROL_NUM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${info.REGIST_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${info.INSPECT_GRADE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,19 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${info.ORDER_QTY}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.MATERIAL_KIND}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${info.SURFACE_TREAT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.NOTE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,15 +155,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${info.USER_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.INSERT_DT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.REGIST_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.COMP_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${info.INSPECT_DT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${info.INSERT_DT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.USER_NM}</t>
+    <t>${info.ORDER_QTY}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.NOTE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.MATERIAL_DETAIL_NM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,6 +771,24 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,24 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1156,20 +1156,20 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1184,140 +1184,140 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>25</v>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="50" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="2:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:13" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
     </row>
     <row r="11" spans="2:13" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
@@ -1770,16 +1770,16 @@
       <c r="N43" s="21"/>
     </row>
     <row r="44" spans="2:14" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="45" spans="2:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C45" s="11"/>
       <c r="F45" s="15"/>
@@ -1805,28 +1805,32 @@
     </row>
     <row r="46" spans="2:14" s="4" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B44:C44"/>
@@ -1843,10 +1847,6 @@
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F2:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="D2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
